--- a/public/assets/result/Siti Sofia_1.xlsx
+++ b/public/assets/result/Siti Sofia_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -157,13 +157,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>SUPRIYATIN</t>
+    <t>SITI SOFIA</t>
   </si>
 </sst>
 </file>
@@ -916,16 +913,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K13" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L13" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -953,16 +950,16 @@
         <v>25</v>
       </c>
       <c r="I14" s="5">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5">
         <v>20</v>
       </c>
-      <c r="J14" s="5">
-        <v>43</v>
-      </c>
       <c r="K14" s="5">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L14" s="5">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -1027,16 +1024,16 @@
         <v>28</v>
       </c>
       <c r="I16" s="5">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J16" s="5">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K16" s="5">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L16" s="5">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -1101,16 +1098,16 @@
         <v>28</v>
       </c>
       <c r="I18" s="5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J18" s="5">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K18" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L18" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
@@ -1138,16 +1135,16 @@
         <v>25</v>
       </c>
       <c r="I19" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J19" s="5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K19" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L19" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1175,16 +1172,16 @@
         <v>27</v>
       </c>
       <c r="I20" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J20" s="5">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K20" s="5">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L20" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M20" s="5">
         <v>2</v>
@@ -1212,16 +1209,16 @@
         <v>34</v>
       </c>
       <c r="I21" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L21" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
@@ -1249,16 +1246,16 @@
         <v>28</v>
       </c>
       <c r="I22" s="5">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J22" s="5">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="K22" s="5">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="L22" s="5">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M22" s="5">
         <v>2</v>
@@ -1286,16 +1283,16 @@
         <v>24</v>
       </c>
       <c r="I23" s="5">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="J23" s="5">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="K23" s="5">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="L23" s="5">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="M23" s="5">
         <v>2</v>
@@ -1323,16 +1320,16 @@
         <v>25</v>
       </c>
       <c r="I24" s="5">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="J24" s="5">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="K24" s="5">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="L24" s="5">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M24" s="5">
         <v>2</v>
@@ -1360,16 +1357,16 @@
         <v>27</v>
       </c>
       <c r="I25" s="5">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J25" s="5">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="K25" s="5">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L25" s="5">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M25" s="5">
         <v>2</v>
@@ -1397,16 +1394,16 @@
         <v>28</v>
       </c>
       <c r="I26" s="5">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="J26" s="5">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="K26" s="5">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="L26" s="5">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="M26" s="5">
         <v>2</v>
@@ -1434,16 +1431,16 @@
         <v>24</v>
       </c>
       <c r="I27" s="5">
+        <v>12</v>
+      </c>
+      <c r="J27" s="5">
         <v>14</v>
       </c>
-      <c r="J27" s="5">
-        <v>16</v>
-      </c>
       <c r="K27" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L27" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
@@ -1471,16 +1468,16 @@
         <v>27</v>
       </c>
       <c r="I28" s="5">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J28" s="5">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="K28" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L28" s="5">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M28" s="5">
         <v>2</v>
@@ -1545,16 +1542,16 @@
         <v>28</v>
       </c>
       <c r="I30" s="5">
+        <v>5</v>
+      </c>
+      <c r="J30" s="5">
         <v>6</v>
       </c>
-      <c r="J30" s="5">
-        <v>7</v>
-      </c>
       <c r="K30" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30" s="5">
         <v>2</v>
@@ -1606,9 +1603,7 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="K36" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="N36" s="1"/>
     </row>
@@ -1624,10 +1619,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="D39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="L39" s="4"/>
       <c r="N39" s="1"/>
